--- a/result/output_solve_time.xlsx
+++ b/result/output_solve_time.xlsx
@@ -499,290 +499,290 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>99.58333333333333</v>
+        <v>99.04166666666666</v>
       </c>
       <c r="B3" t="n">
-        <v>99.58333333333333</v>
+        <v>99.08333333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>99.58333333333333</v>
+        <v>99.125</v>
       </c>
       <c r="D3" t="n">
-        <v>99.58333333333333</v>
+        <v>99.16666666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>99.58333333333333</v>
+        <v>99.20833333333333</v>
       </c>
       <c r="F3" t="n">
-        <v>99.58333333333333</v>
+        <v>99.20833333333333</v>
       </c>
       <c r="G3" t="n">
-        <v>99.58333333333333</v>
+        <v>99.25</v>
       </c>
       <c r="H3" t="n">
-        <v>99.625</v>
+        <v>99.25</v>
       </c>
       <c r="I3" t="n">
-        <v>99.66666666666667</v>
+        <v>99.33333333333333</v>
       </c>
       <c r="J3" t="n">
-        <v>99.66666666666667</v>
+        <v>99.29166666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>99.08333333333333</v>
+        <v>98.04166666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>99.08333333333333</v>
+        <v>98.08333333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>99.125</v>
+        <v>98.125</v>
       </c>
       <c r="D4" t="n">
-        <v>99.125</v>
+        <v>98.25</v>
       </c>
       <c r="E4" t="n">
-        <v>99.25</v>
+        <v>98.25</v>
       </c>
       <c r="F4" t="n">
-        <v>99.25</v>
+        <v>98.29166666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>99.29166666666667</v>
+        <v>98.33333333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>99.29166666666667</v>
+        <v>98.45833333333334</v>
       </c>
       <c r="I4" t="n">
-        <v>99.29166666666667</v>
+        <v>98.54166666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>99.375</v>
+        <v>98.54166666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>98.54166666666667</v>
+        <v>97.04166666666667</v>
       </c>
       <c r="B5" t="n">
-        <v>98.625</v>
+        <v>97.04166666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>98.625</v>
+        <v>97.08333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>98.70833333333333</v>
+        <v>97.20833333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>98.70833333333333</v>
+        <v>97.29166666666667</v>
       </c>
       <c r="F5" t="n">
-        <v>98.75</v>
+        <v>97.33333333333334</v>
       </c>
       <c r="G5" t="n">
-        <v>98.75</v>
+        <v>97.33333333333334</v>
       </c>
       <c r="H5" t="n">
-        <v>98.75</v>
+        <v>97.54166666666667</v>
       </c>
       <c r="I5" t="n">
-        <v>98.75</v>
+        <v>97.58333333333333</v>
       </c>
       <c r="J5" t="n">
-        <v>98.75</v>
+        <v>97.58333333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>97.875</v>
+        <v>96.125</v>
       </c>
       <c r="B6" t="n">
-        <v>97.875</v>
+        <v>96.16666666666667</v>
       </c>
       <c r="C6" t="n">
-        <v>97.875</v>
+        <v>96.16666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>97.875</v>
+        <v>96.20833333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>97.875</v>
+        <v>96.375</v>
       </c>
       <c r="F6" t="n">
-        <v>97.91666666666666</v>
+        <v>96.41666666666666</v>
       </c>
       <c r="G6" t="n">
-        <v>98</v>
+        <v>96.45833333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95833333333334</v>
+        <v>96.5</v>
       </c>
       <c r="I6" t="n">
-        <v>98.25</v>
+        <v>96.66666666666667</v>
       </c>
       <c r="J6" t="n">
-        <v>98.33333333333333</v>
+        <v>96.66666666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>96.66666666666667</v>
+        <v>95.29166666666666</v>
       </c>
       <c r="B7" t="n">
-        <v>96.70833333333333</v>
+        <v>95.41666666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>96.875</v>
+        <v>95.45833333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>96.79166666666667</v>
+        <v>95.66666666666667</v>
       </c>
       <c r="E7" t="n">
-        <v>97.20833333333333</v>
+        <v>95.75</v>
       </c>
       <c r="F7" t="n">
-        <v>97.20833333333333</v>
+        <v>95.79166666666666</v>
       </c>
       <c r="G7" t="n">
-        <v>97.20833333333333</v>
+        <v>95.83333333333334</v>
       </c>
       <c r="H7" t="n">
-        <v>97.20833333333333</v>
+        <v>95.875</v>
       </c>
       <c r="I7" t="n">
-        <v>97.20833333333333</v>
+        <v>95.91666666666666</v>
       </c>
       <c r="J7" t="n">
-        <v>97.29166666666667</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>95.58333333333333</v>
+        <v>94.29166666666666</v>
       </c>
       <c r="B8" t="n">
-        <v>95.83333333333334</v>
+        <v>94.33333333333334</v>
       </c>
       <c r="C8" t="n">
-        <v>95.95833333333333</v>
+        <v>94.375</v>
       </c>
       <c r="D8" t="n">
-        <v>96.04166666666667</v>
+        <v>94.625</v>
       </c>
       <c r="E8" t="n">
-        <v>96.29166666666666</v>
+        <v>94.70833333333334</v>
       </c>
       <c r="F8" t="n">
-        <v>96.33333333333334</v>
+        <v>94.91666666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>96.375</v>
+        <v>95.08333333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>96.5</v>
+        <v>95.125</v>
       </c>
       <c r="I8" t="n">
-        <v>96.5</v>
+        <v>95.29166666666666</v>
       </c>
       <c r="J8" t="n">
-        <v>96.75</v>
+        <v>95.29166666666666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>94.16666666666667</v>
+        <v>93.33333333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>94.33333333333334</v>
+        <v>93.41666666666667</v>
       </c>
       <c r="C9" t="n">
-        <v>94.33333333333334</v>
+        <v>93.54166666666667</v>
       </c>
       <c r="D9" t="n">
-        <v>94.875</v>
+        <v>93.45833333333333</v>
       </c>
       <c r="E9" t="n">
-        <v>94.83333333333334</v>
+        <v>93.66666666666667</v>
       </c>
       <c r="F9" t="n">
-        <v>95.16666666666667</v>
+        <v>94</v>
       </c>
       <c r="G9" t="n">
-        <v>95.375</v>
+        <v>93.95833333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>95.5</v>
+        <v>94.08333333333333</v>
       </c>
       <c r="I9" t="n">
-        <v>95.5</v>
+        <v>94.20833333333334</v>
       </c>
       <c r="J9" t="n">
-        <v>95.58333333333333</v>
+        <v>94.20833333333334</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>92.41666666666667</v>
+      </c>
+      <c r="B10" t="n">
+        <v>92.45833333333333</v>
+      </c>
+      <c r="C10" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>92.625</v>
+      </c>
+      <c r="E10" t="n">
+        <v>92.75</v>
+      </c>
+      <c r="F10" t="n">
         <v>92.91666666666667</v>
       </c>
-      <c r="B10" t="n">
-        <v>92.91666666666667</v>
-      </c>
-      <c r="C10" t="n">
-        <v>93.33333333333333</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="G10" t="n">
+        <v>93.08333333333333</v>
+      </c>
+      <c r="H10" t="n">
+        <v>93.16666666666666</v>
+      </c>
+      <c r="I10" t="n">
+        <v>93.20833333333334</v>
+      </c>
+      <c r="J10" t="n">
         <v>93.375</v>
-      </c>
-      <c r="E10" t="n">
-        <v>93.75</v>
-      </c>
-      <c r="F10" t="n">
-        <v>94.04166666666667</v>
-      </c>
-      <c r="G10" t="n">
-        <v>94.41666666666667</v>
-      </c>
-      <c r="H10" t="n">
-        <v>94.41666666666667</v>
-      </c>
-      <c r="I10" t="n">
-        <v>94.45833333333333</v>
-      </c>
-      <c r="J10" t="n">
-        <v>94.45833333333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>91.16666666666666</v>
+        <v>91.625</v>
       </c>
       <c r="B11" t="n">
-        <v>92.125</v>
+        <v>91.54166666666667</v>
       </c>
       <c r="C11" t="n">
-        <v>92.125</v>
+        <v>91.625</v>
       </c>
       <c r="D11" t="n">
-        <v>92.45833333333333</v>
+        <v>91.70833333333334</v>
       </c>
       <c r="E11" t="n">
-        <v>92.5</v>
+        <v>91.75</v>
       </c>
       <c r="F11" t="n">
-        <v>92.625</v>
+        <v>91.95833333333333</v>
       </c>
       <c r="G11" t="n">
-        <v>92.91666666666667</v>
+        <v>92.08333333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>93</v>
+        <v>92.16666666666666</v>
       </c>
       <c r="I11" t="n">
-        <v>93.16666666666666</v>
+        <v>92.20833333333334</v>
       </c>
       <c r="J11" t="n">
-        <v>93.25</v>
+        <v>92.41666666666667</v>
       </c>
     </row>
   </sheetData>
